--- a/per_day_cases.xlsx
+++ b/per_day_cases.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atul Harsha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0D8A4A-24D4-41A3-8583-58A1AAE4B4A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91562926-2B87-4F5B-B5A4-078C393C430B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2AF6CC1B-DC56-F34F-8781-6C31977464DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{2AF6CC1B-DC56-F34F-8781-6C31977464DA}"/>
   </bookViews>
   <sheets>
     <sheet name="India" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -48,21 +48,6 @@
   </si>
   <si>
     <t>Days after surpassing 100 cases</t>
-  </si>
-  <si>
-    <t>Country/Region</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -429,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE73C83-1344-8043-808C-2914A8C63C0B}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -869,7 +854,7 @@
         <v>28</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C57" si="1">(B36-B35)</f>
+        <f>(B36-B35)</f>
         <v>19</v>
       </c>
     </row>
@@ -881,7 +866,7 @@
         <v>30</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
+        <f>(B37-B36)</f>
         <v>2</v>
       </c>
     </row>
@@ -893,7 +878,7 @@
         <v>31</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
+        <f>(B38-B37)</f>
         <v>1</v>
       </c>
     </row>
@@ -905,7 +890,7 @@
         <v>34</v>
       </c>
       <c r="C39">
-        <f t="shared" si="1"/>
+        <f>(B39-B38)</f>
         <v>3</v>
       </c>
     </row>
@@ -917,7 +902,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f>(B40-B39)</f>
         <v>5</v>
       </c>
     </row>
@@ -929,7 +914,7 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
+        <f>(B41-B40)</f>
         <v>4</v>
       </c>
     </row>
@@ -941,7 +926,7 @@
         <v>56</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
+        <f>(B42-B41)</f>
         <v>13</v>
       </c>
     </row>
@@ -953,7 +938,7 @@
         <v>62</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
+        <f>(B43-B42)</f>
         <v>6</v>
       </c>
     </row>
@@ -965,7 +950,7 @@
         <v>73</v>
       </c>
       <c r="C44">
-        <f t="shared" si="1"/>
+        <f>(B44-B43)</f>
         <v>11</v>
       </c>
     </row>
@@ -977,7 +962,7 @@
         <v>82</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
+        <f>(B45-B44)</f>
         <v>9</v>
       </c>
     </row>
@@ -989,7 +974,7 @@
         <v>102</v>
       </c>
       <c r="C46">
-        <f t="shared" si="1"/>
+        <f>(B46-B45)</f>
         <v>20</v>
       </c>
       <c r="D46">
@@ -1004,7 +989,7 @@
         <v>113</v>
       </c>
       <c r="C47">
-        <f t="shared" si="1"/>
+        <f>(B47-B46)</f>
         <v>11</v>
       </c>
       <c r="D47">
@@ -1019,7 +1004,7 @@
         <v>119</v>
       </c>
       <c r="C48">
-        <f t="shared" si="1"/>
+        <f>(B48-B47)</f>
         <v>6</v>
       </c>
       <c r="D48">
@@ -1034,7 +1019,7 @@
         <v>142</v>
       </c>
       <c r="C49">
-        <f t="shared" si="1"/>
+        <f>(B49-B48)</f>
         <v>23</v>
       </c>
       <c r="D49">
@@ -1049,7 +1034,7 @@
         <v>156</v>
       </c>
       <c r="C50">
-        <f t="shared" si="1"/>
+        <f>(B50-B49)</f>
         <v>14</v>
       </c>
       <c r="D50">
@@ -1064,7 +1049,7 @@
         <v>194</v>
       </c>
       <c r="C51">
-        <f t="shared" si="1"/>
+        <f>(B51-B50)</f>
         <v>38</v>
       </c>
       <c r="D51">
@@ -1079,7 +1064,7 @@
         <v>244</v>
       </c>
       <c r="C52">
-        <f t="shared" si="1"/>
+        <f>(B52-B51)</f>
         <v>50</v>
       </c>
       <c r="D52">
@@ -1091,74 +1076,14 @@
         <v>43911</v>
       </c>
       <c r="B53">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="C53">
-        <f t="shared" si="1"/>
-        <v>86</v>
+        <f>(B53-B52)</f>
+        <v>27</v>
       </c>
       <c r="D53">
         <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B54">
-        <v>396</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="D54">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B55">
-        <v>499</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="D55">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B56">
-        <v>536</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="D56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B57">
-        <v>562</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="D57">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1168,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526014D6-47D7-9642-9D03-F415267BB89E}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1833,7 +1758,7 @@
         <v>31506</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:C56" si="1">(B49-B48)</f>
+        <f t="shared" ref="C49:C52" si="1">(B49-B48)</f>
         <v>3526</v>
       </c>
       <c r="D49">
@@ -1886,64 +1811,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>43911</v>
-      </c>
-      <c r="B53">
-        <v>53578</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="1"/>
-        <v>6557</v>
-      </c>
-      <c r="D53">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B54">
-        <v>59138</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="1"/>
-        <v>5560</v>
-      </c>
-      <c r="D54">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B55">
-        <v>63927</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="1"/>
-        <v>4789</v>
-      </c>
-      <c r="D55">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B56">
-        <v>69176</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="1"/>
-        <v>5249</v>
-      </c>
-      <c r="D56">
-        <v>30</v>
-      </c>
+      <c r="A53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1952,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8F50AE-0096-4517-BFDE-7D2002535AD3}">
-  <dimension ref="A1:AZ64"/>
+  <dimension ref="A1:AZ61"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2601,7 +2469,7 @@
         <v>67798</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:C64" si="0">B56-B55</f>
+        <f t="shared" ref="C56:C60" si="0">B56-B55</f>
         <v>4</v>
       </c>
     </row>
@@ -2654,52 +2522,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>43911</v>
-      </c>
-      <c r="B61">
-        <v>67800</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B62">
-        <v>67800</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B63">
-        <v>67800</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B64">
-        <v>67801</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2710,10 +2533,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8B6278-1A8E-9D4A-9F54-21D7A8F5A732}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3504,7 +3327,7 @@
         <v>8320</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:C66" si="1">B59-B58</f>
+        <f t="shared" ref="C59:C62" si="1">B59-B58</f>
         <v>84</v>
       </c>
       <c r="D59">
@@ -3554,66 +3377,6 @@
       </c>
       <c r="D62">
         <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>43911</v>
-      </c>
-      <c r="B63">
-        <v>8799</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="1"/>
-        <v>147</v>
-      </c>
-      <c r="D63">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B64">
-        <v>8961</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="1"/>
-        <v>162</v>
-      </c>
-      <c r="D64">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B65">
-        <v>8961</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B66">
-        <v>9037</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="D66">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
